--- a/color/src/main/webapp/docs/export2007.xlsx
+++ b/color/src/main/webapp/docs/export2007.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="21600" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="21600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>家长联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,7 +391,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,34 +404,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
